--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fgf7</t>
   </si>
   <si>
     <t>Nrp1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.4758255405945</v>
+        <v>0.253928</v>
       </c>
       <c r="H2">
-        <v>11.4758255405945</v>
+        <v>0.761784</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>1113.355331594018</v>
+        <v>25.84767231458933</v>
       </c>
       <c r="R2">
-        <v>1113.355331594018</v>
+        <v>232.629050831304</v>
       </c>
       <c r="S2">
-        <v>0.2773824810171835</v>
+        <v>0.005981915588190303</v>
       </c>
       <c r="T2">
-        <v>0.2773824810171835</v>
+        <v>0.005981915588190303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.4758255405945</v>
+        <v>0.253928</v>
       </c>
       <c r="H3">
-        <v>11.4758255405945</v>
+        <v>0.761784</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>622.1953206226366</v>
+        <v>13.80002483609333</v>
       </c>
       <c r="R3">
-        <v>622.1953206226366</v>
+        <v>124.20022352484</v>
       </c>
       <c r="S3">
-        <v>0.1550143757469534</v>
+        <v>0.003193733759842104</v>
       </c>
       <c r="T3">
-        <v>0.1550143757469534</v>
+        <v>0.003193733759842104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.4758255405945</v>
+        <v>0.253928</v>
       </c>
       <c r="H4">
-        <v>11.4758255405945</v>
+        <v>0.761784</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>1397.161345911402</v>
+        <v>31.04378548898133</v>
       </c>
       <c r="R4">
-        <v>1397.161345911402</v>
+        <v>279.394069400832</v>
       </c>
       <c r="S4">
-        <v>0.3480902004172829</v>
+        <v>0.007184449805492042</v>
       </c>
       <c r="T4">
-        <v>0.3480902004172829</v>
+        <v>0.007184449805492042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.4758255405945</v>
+        <v>0.253928</v>
       </c>
       <c r="H5">
-        <v>11.4758255405945</v>
+        <v>0.761784</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0213224453904554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>781.8891016900017</v>
+        <v>19.079419115216</v>
       </c>
       <c r="R5">
-        <v>781.8891016900017</v>
+        <v>171.714772036944</v>
       </c>
       <c r="S5">
-        <v>0.1948006469745413</v>
+        <v>0.004415541687075118</v>
       </c>
       <c r="T5">
-        <v>0.1948006469745413</v>
+        <v>0.004415541687075119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.253928</v>
+      </c>
+      <c r="H6">
+        <v>0.761784</v>
+      </c>
+      <c r="I6">
+        <v>0.0213224453904554</v>
+      </c>
+      <c r="J6">
+        <v>0.0213224453904554</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N6">
+        <v>27.91412</v>
+      </c>
+      <c r="O6">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P6">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q6">
+        <v>2.362725554453333</v>
+      </c>
+      <c r="R6">
+        <v>21.26452999008</v>
+      </c>
+      <c r="S6">
+        <v>0.0005468045498558281</v>
+      </c>
+      <c r="T6">
+        <v>0.0005468045498558281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H7">
+        <v>34.555187</v>
+      </c>
+      <c r="I7">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J7">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>101.7913436666667</v>
+      </c>
+      <c r="N7">
+        <v>305.374031</v>
+      </c>
+      <c r="O7">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="P7">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="Q7">
+        <v>1172.472971794311</v>
+      </c>
+      <c r="R7">
+        <v>10552.2567461488</v>
+      </c>
+      <c r="S7">
+        <v>0.2713449111140834</v>
+      </c>
+      <c r="T7">
+        <v>0.2713449111140834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H8">
+        <v>34.555187</v>
+      </c>
+      <c r="I8">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J8">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N8">
+        <v>163.038635</v>
+      </c>
+      <c r="O8">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="P8">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="Q8">
+        <v>625.9811689610829</v>
+      </c>
+      <c r="R8">
+        <v>5633.830520649745</v>
+      </c>
+      <c r="S8">
+        <v>0.1448705503128932</v>
+      </c>
+      <c r="T8">
+        <v>0.1448705503128932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H9">
+        <v>34.555187</v>
+      </c>
+      <c r="I9">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J9">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>122.2542826666667</v>
+      </c>
+      <c r="N9">
+        <v>366.762848</v>
+      </c>
+      <c r="O9">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="P9">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="Q9">
+        <v>1408.173199699175</v>
+      </c>
+      <c r="R9">
+        <v>12673.55879729258</v>
+      </c>
+      <c r="S9">
+        <v>0.3258929125853144</v>
+      </c>
+      <c r="T9">
+        <v>0.3258929125853144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H10">
+        <v>34.555187</v>
+      </c>
+      <c r="I10">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J10">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>75.13712199999999</v>
+      </c>
+      <c r="N10">
+        <v>225.411366</v>
+      </c>
+      <c r="O10">
+        <v>0.2070842066291165</v>
+      </c>
+      <c r="P10">
+        <v>0.2070842066291166</v>
+      </c>
+      <c r="Q10">
+        <v>865.4591004506048</v>
+      </c>
+      <c r="R10">
+        <v>7789.131904055443</v>
+      </c>
+      <c r="S10">
+        <v>0.2002928240855364</v>
+      </c>
+      <c r="T10">
+        <v>0.2002928240855364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.51839566666667</v>
+      </c>
+      <c r="H11">
+        <v>34.555187</v>
+      </c>
+      <c r="I11">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="J11">
+        <v>0.9672047296405206</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N11">
+        <v>27.91412</v>
+      </c>
+      <c r="O11">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P11">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q11">
+        <v>107.1752929489378</v>
+      </c>
+      <c r="R11">
+        <v>964.57763654044</v>
+      </c>
+      <c r="S11">
+        <v>0.02480353154269316</v>
+      </c>
+      <c r="T11">
+        <v>0.02480353154269316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.409888</v>
+      </c>
+      <c r="I12">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J12">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>101.7913436666667</v>
+      </c>
+      <c r="N12">
+        <v>305.374031</v>
+      </c>
+      <c r="O12">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="P12">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="Q12">
+        <v>13.90768342428089</v>
+      </c>
+      <c r="R12">
+        <v>125.169150818528</v>
+      </c>
+      <c r="S12">
+        <v>0.003218649140192164</v>
+      </c>
+      <c r="T12">
+        <v>0.003218649140192164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.409888</v>
+      </c>
+      <c r="I13">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J13">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N13">
+        <v>163.038635</v>
+      </c>
+      <c r="O13">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="P13">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="Q13">
+        <v>7.42528666920889</v>
+      </c>
+      <c r="R13">
+        <v>66.82758002288</v>
+      </c>
+      <c r="S13">
+        <v>0.001718430871945539</v>
+      </c>
+      <c r="T13">
+        <v>0.001718430871945539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.409888</v>
+      </c>
+      <c r="I14">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J14">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>122.2542826666667</v>
+      </c>
+      <c r="N14">
+        <v>366.762848</v>
+      </c>
+      <c r="O14">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="P14">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="Q14">
+        <v>16.70352113789156</v>
+      </c>
+      <c r="R14">
+        <v>150.331690241024</v>
+      </c>
+      <c r="S14">
+        <v>0.003865688649109882</v>
+      </c>
+      <c r="T14">
+        <v>0.003865688649109882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>11.4758255405945</v>
-      </c>
-      <c r="H6">
-        <v>11.4758255405945</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="N6">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="O6">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="P6">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="Q6">
-        <v>99.18999294041531</v>
-      </c>
-      <c r="R6">
-        <v>99.18999294041531</v>
-      </c>
-      <c r="S6">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="T6">
-        <v>0.02471229584403883</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.409888</v>
+      </c>
+      <c r="I15">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J15">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>75.13712199999999</v>
+      </c>
+      <c r="N15">
+        <v>225.411366</v>
+      </c>
+      <c r="O15">
+        <v>0.2070842066291165</v>
+      </c>
+      <c r="P15">
+        <v>0.2070842066291166</v>
+      </c>
+      <c r="Q15">
+        <v>10.26593488744533</v>
+      </c>
+      <c r="R15">
+        <v>92.393413987008</v>
+      </c>
+      <c r="S15">
+        <v>0.002375840856505055</v>
+      </c>
+      <c r="T15">
+        <v>0.002375840856505055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1366293333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.409888</v>
+      </c>
+      <c r="I16">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="J16">
+        <v>0.011472824969024</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N16">
+        <v>27.91412</v>
+      </c>
+      <c r="O16">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P16">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q16">
+        <v>1.271295868728889</v>
+      </c>
+      <c r="R16">
+        <v>11.44166281856</v>
+      </c>
+      <c r="S16">
+        <v>0.0002942154512713652</v>
+      </c>
+      <c r="T16">
+        <v>0.0002942154512713652</v>
       </c>
     </row>
   </sheetData>
